--- a/datamining/final_data/topic12_candidates.xlsx
+++ b/datamining/final_data/topic12_candidates.xlsx
@@ -436,317 +436,317 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('학기', '동안')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.29581</v>
+        <v>0.9392308333333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('기술', '발달')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.13798</v>
+        <v>0.5654443333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('수정', '보완')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.42631</v>
+        <v>0.4598598333333334</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('도움', '기대')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.27056</v>
+        <v>0.449107</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('한계', '극복')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.10993</v>
+        <v>0.4280145</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('핵심', '역량')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09915</v>
+        <v>0.4055925</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('동기', '유발')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.47209</v>
+        <v>0.3990651666666666</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('목적', '달성')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.34967</v>
+        <v>0.3912975</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('흥미', '유발')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03612</v>
+        <v>0.3797386666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.09336999999999999</v>
+        <v>0.376447</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('설문', '조사')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2777</v>
+        <v>0.3694758333333333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('상관', '관계')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.08924</v>
+        <v>0.3672706666666666</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('디지털', '리터러시')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2704</v>
+        <v>0.3468413333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('혁명', '시대')</t>
+          <t>('기회', '제공')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.29967</v>
+        <v>0.3350613333333333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('부족', '실정')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.28307</v>
+        <v>0.3334428333333333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('지속', '의향')</t>
+          <t>('주도', '학습력')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1062</v>
+        <v>0.312875</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('학교', '현장')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.37257</v>
+        <v>0.3128233333333333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('표본', '검정')</t>
+          <t>('긍정', '반응')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.32014</v>
+        <v>0.3090731666666666</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('재량', '활동')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.34847</v>
+        <v>0.308738</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('프레임', '임워크')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.23915</v>
+        <v>0.3079541666666667</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('문헌', '고찰')</t>
+          <t>('ict', '리터러시')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.14647</v>
+        <v>0.3012391666666667</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('다중', '지능')</t>
+          <t>('자기', '주도')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.15005</v>
+        <v>0.2914141666666666</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('윤리', '의식')</t>
+          <t>('기여', '기대')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.10392</v>
+        <v>0.2820761666666667</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('통신', '기술')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.11192</v>
+        <v>0.279456</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('통제', '집단')</t>
+          <t>('스마트', '기기')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.21017</v>
+        <v>0.2784953333333333</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('상관', '관계')</t>
+          <t>('긍정', '영향')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.44438</v>
+        <v>0.2779383333333333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리')</t>
+          <t>('집단', '통제')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.07065</v>
+        <v>0.2738291666666667</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('성취', '기준')</t>
+          <t>('설계', '구현')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1607</v>
+        <v>0.2692998333333333</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('사후', '검사')</t>
+          <t>('유의미', '차이')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.23497</v>
+        <v>0.2632886666666666</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅')</t>
+          <t>('방안', '모색')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.12548</v>
+        <v>0.2558381666666667</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취')</t>
+          <t>('요구', '사항')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.29124</v>
+        <v>0.254748</v>
       </c>
     </row>
     <row r="33">
@@ -756,687 +756,687 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.33791</v>
+        <v>0.2431271666666667</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스토리텔링')</t>
+          <t>('학업', '성취')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.09916</v>
+        <v>0.23795</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('동기', '유발')</t>
+          <t>('비판', '사고력')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.48796</v>
+        <v>0.2368668333333333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('자기', '효능감')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.10571</v>
+        <v>0.2293</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('과제', '표절')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.08191</v>
+        <v>0.2271628333333333</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력')</t>
+          <t>('학업', '성취도')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.12805</v>
+        <v>0.2251958333333333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('학급', '홈페이지')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.08543000000000001</v>
+        <v>0.2251528333333334</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결력')</t>
+          <t>('컴퓨팅', '사고')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.16159</v>
+        <v>0.2234493333333333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('공공', '서비스')</t>
+          <t>('사회', '연결망')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.04113</v>
+        <v>0.2216405</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('논리', '사고력')</t>
+          <t>('주의', '집중')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.15593</v>
+        <v>0.218426</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.21121</v>
+        <v>0.2135188333333333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('과제', '가치')</t>
+          <t>('예비', '교원')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.08556</v>
+        <v>0.2083528333333333</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사')</t>
+          <t>('유의', '차이')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.45711</v>
+        <v>0.2065948333333333</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성')</t>
+          <t>('시사점', '도출')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.48528</v>
+        <v>0.2052698333333333</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('유의미', '차이')</t>
+          <t>('표본', '검정')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.34374</v>
+        <v>0.2020446666666667</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('성격', '유형')</t>
+          <t>('문제', '해결')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.07482</v>
+        <v>0.2005465</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('디자인', '사고')</t>
+          <t>('개선', '방안')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.06665</v>
+        <v>0.1972438333333333</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('인터넷', '중독')</t>
+          <t>('실험', '집단')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.10362</v>
+        <v>0.1957878333333334</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('표준', '모델')</t>
+          <t>('스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.13682</v>
+        <v>0.1876848333333333</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('한계', '극복')</t>
+          <t>('문제', '해결능력')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.53625</v>
+        <v>0.1808835</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('주의', '집중')</t>
+          <t>('혁명', '시대')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.28652</v>
+        <v>0.1798965</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.25591</v>
+        <v>0.1734966666666666</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '리터러시')</t>
+          <t>('운영', '체제')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.37959</v>
+        <v>0.1682976666666667</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('사회', '연결망')</t>
+          <t>('예비', '교사')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.26759</v>
+        <v>0.1665646666666666</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('시사점', '도출')</t>
+          <t>('addie', '모형')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.31601</v>
+        <v>0.1644185</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('유의', '차이')</t>
+          <t>('사회', '실재감')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.26932</v>
+        <v>0.1577581666666667</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('방안', '모색')</t>
+          <t>('프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.35186</v>
+        <v>0.1548421666666667</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독')</t>
+          <t>('정보', '통신')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.04735</v>
+        <v>0.1523468333333333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('학기', '동안')</t>
+          <t>('통제', '집단')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1.04918</v>
+        <v>0.1520463333333333</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('기여', '기대')</t>
+          <t>('사후', '검사')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.37258</v>
+        <v>0.1384433333333333</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('흥미', '유발')</t>
+          <t>('코딩', '강사')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.48714</v>
+        <v>0.1335778333333333</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담실')</t>
+          <t>('프레임', '임워크')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.08504</v>
+        <v>0.1309143333333333</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원')</t>
+          <t>('지식', '창출')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.24827</v>
+        <v>0.1262596666666667</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('지식', '창출')</t>
+          <t>('통계', '유의')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.16837</v>
+        <v>0.1257708333333333</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결')</t>
+          <t>('성취', '기준')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.26037</v>
+        <v>0.1234281666666667</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('정렬', '알고리즘')</t>
+          <t>('iptv', '유아')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.04542</v>
+        <v>0.1222708333333333</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('요구', '사항')</t>
+          <t>('문제', '해결력')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.31245</v>
+        <v>0.1209665</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술')</t>
+          <t>('논리', '사고력')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.33022</v>
+        <v>0.1172216666666667</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('코딩', '강사')</t>
+          <t>('원격', '연수')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.15352</v>
+        <v>0.1115328333333333</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('ict', '리터러시')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.32234</v>
+        <v>0.1077721666666667</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '반응')</t>
+          <t>('문헌', '고찰')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.40423</v>
+        <v>0.1010305</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('addie', '모형')</t>
+          <t>('컴퓨팅', '사고력')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.24002</v>
+        <v>0.09457583333333333</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('중독', '치료')</t>
+          <t>('피지컬', '컴퓨팅')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.07337</v>
+        <v>0.09266816666666666</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('영재', '판별')</t>
+          <t>('자기', '조절')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.10535</v>
+        <v>0.09145250000000001</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교사')</t>
+          <t>('표준', '모델')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.20192</v>
+        <v>0.09120233333333333</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.07983999999999999</v>
+        <v>0.08688816666666667</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('수정', '보완')</t>
+          <t>('다중', '지능')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.5716</v>
+        <v>0.0853225</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('설계', '구현')</t>
+          <t>('인터넷', '중독')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.33443</v>
+        <v>0.08269800000000001</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('운영', '체제')</t>
+          <t>('지속', '의향')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.20622</v>
+        <v>0.08092166666666667</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결능력')</t>
+          <t>('자기', '효능감')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.24601</v>
+        <v>0.07880216666666666</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('원격', '연수')</t>
+          <t>('과제', '표절')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.13858</v>
+        <v>0.0775575</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('부족', '실정')</t>
+          <t>('윤리', '의식')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.42178</v>
+        <v>0.07255416666666667</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('개선', '방안')</t>
+          <t>('사이버', '정학습')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.24991</v>
+        <v>0.07188099999999999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('기술', '발달')</t>
+          <t>('과제', '가치')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.66652</v>
+        <v>0.071382</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.2068</v>
+        <v>0.06970683333333333</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('기회', '제공')</t>
+          <t>('영재', '판별')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.45987</v>
+        <v>0.06842816666666665</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('iptv', '유아')</t>
+          <t>('디지털', '스토리텔링')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.1381</v>
+        <v>0.06841133333333332</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('스마트폰', '중독')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.22191</v>
+        <v>0.06760783333333334</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('학교', '현장')</t>
+          <t>('사이버', '상담실')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.39564</v>
+        <v>0.06070766666666667</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고')</t>
+          <t>('데이터', '시각')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.27932</v>
+        <v>0.05351766666666666</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('도움', '기대')</t>
+          <t>('학급', '홈페이지')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.54625</v>
+        <v>0.05316733333333334</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '영향')</t>
+          <t>('통신', '윤리')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.37365</v>
+        <v>0.05119800000000001</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신')</t>
+          <t>('디자인', '사고')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.18459</v>
+        <v>0.0472315</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제')</t>
+          <t>('성격', '유형')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.36973</v>
+        <v>0.04380016666666665</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('사회', '실재감')</t>
+          <t>('중독', '치료')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.17854</v>
+        <v>0.04048033333333333</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('핵심', '역량')</t>
+          <t>('게임', '중독')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.49208</v>
+        <v>0.030235</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동')</t>
+          <t>('정렬', '알고리즘')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.37736</v>
+        <v>0.022596</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('비판', '사고력')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.2914</v>
+        <v>0.02034216666666666</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('스마트', '기기')</t>
+          <t>('공공', '서비스')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.35248</v>
+        <v>0.01891416666666667</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic12_candidates.xlsx
+++ b/datamining/final_data/topic12_candidates.xlsx
@@ -442,851 +442,851 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('학기', '동안')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9392308333333333</v>
+        <v>0.7983568333333334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('기술', '발달')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5654443333333333</v>
+        <v>0.7485206666666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('수정', '보완')</t>
+          <t>('기술', '의', '발달')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4598598333333334</v>
+        <v>0.6094723333333334</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('도움', '기대')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.449107</v>
+        <v>0.5321941666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('한계', '극복')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4280145</v>
+        <v>0.5166283333333334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('핵심', '역량')</t>
+          <t>('ㄴ', '인재', '양성')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4055925</v>
+        <v>0.5162146666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('동기', '유발')</t>
+          <t>('분석', '그', '결과')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3990651666666666</v>
+        <v>0.4930921666666667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성')</t>
+          <t>('것', '알', 'ㄹ')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3912975</v>
+        <v>0.4670603333333334</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('흥미', '유발')</t>
+          <t>('중', '의', '하나')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3797386666666667</v>
+        <v>0.4461976666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('의', '스', '마')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.376447</v>
+        <v>0.4170938333333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사')</t>
+          <t>('이', '같', '은')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3694758333333333</v>
+        <v>0.4161141666666666</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('상관', '관계')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3672706666666666</v>
+        <v>0.4071253333333333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '리터러시')</t>
+          <t>('학생', '명', '대상')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3468413333333333</v>
+        <v>0.3950301666666667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('기회', '제공')</t>
+          <t>('수준', '맞', '는')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3350613333333333</v>
+        <v>0.3928031666666666</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('부족', '실정')</t>
+          <t>('다는', '점', '의의')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3334428333333333</v>
+        <v>0.3918493333333334</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('인재', '양성', '위하')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.312875</v>
+        <v>0.38984</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('학교', '현장')</t>
+          <t>('있', '을', '것')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3128233333333333</v>
+        <v>0.3833463333333333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '반응')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3090731666666666</v>
+        <v>0.3782458333333333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.308738</v>
+        <v>0.3721708333333333</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('는', '데', '있')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3079541666666667</v>
+        <v>0.3617298333333334</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('ict', '리터러시')</t>
+          <t>('ㄴ', '기초', '자료')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3012391666666667</v>
+        <v>0.3608825</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2914141666666666</v>
+        <v>0.3607756666666666</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('기여', '기대')</t>
+          <t>('ㄴ', '형태', '의')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2820761666666667</v>
+        <v>0.3573671666666667</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술')</t>
+          <t>('예비', '교원', '의')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.279456</v>
+        <v>0.351117</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('스마트', '기기')</t>
+          <t>('학습자', '중심', '의')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2784953333333333</v>
+        <v>0.3486703333333333</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '영향')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2779383333333333</v>
+        <v>0.3407718333333334</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제')</t>
+          <t>('의', '자기', '주도')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2738291666666667</v>
+        <v>0.3378633333333333</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('설계', '구현')</t>
+          <t>('유', '미', 'ㄴ')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2692998333333333</v>
+        <v>0.3318181666666667</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('유의미', '차이')</t>
+          <t>('ㄴ', '관심', '높')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2632886666666666</v>
+        <v>0.3195796666666667</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('방안', '모색')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2558381666666667</v>
+        <v>0.3188481666666667</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('요구', '사항')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.254748</v>
+        <v>0.3114158333333333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의미')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2431271666666667</v>
+        <v>0.3102283333333333</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.23795</v>
+        <v>0.3019555</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('비판', '사고력')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2368668333333333</v>
+        <v>0.2959156666666667</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2293</v>
+        <v>0.2927306666666666</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2271628333333333</v>
+        <v>0.2847761666666667</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('얻', '을', '수')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2251958333333333</v>
+        <v>0.2830998333333333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2251528333333334</v>
+        <v>0.2817368333333333</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고')</t>
+          <t>('ㄹ', '필요', '있')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2234493333333333</v>
+        <v>0.2678183333333333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('사회', '연결망')</t>
+          <t>('도움', '주', 'ㄹ')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2216405</v>
+        <v>0.2638396666666666</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('주의', '집중')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.218426</v>
+        <v>0.2618423333333333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2135188333333333</v>
+        <v>0.2612503333333334</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원')</t>
+          <t>('영향', '주', '는')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2083528333333333</v>
+        <v>0.256152</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('유의', '차이')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2065948333333333</v>
+        <v>0.2547761666666667</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('시사점', '도출')</t>
+          <t>('마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2052698333333333</v>
+        <v>0.2422095</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('표본', '검정')</t>
+          <t>('향상', '긍정', 'ㄴ')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2020446666666667</v>
+        <v>0.2415126666666667</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2005465</v>
+        <v>0.2414255</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('개선', '방안')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1972438333333333</v>
+        <v>0.2361958333333333</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1957878333333334</v>
+        <v>0.2304158333333333</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('스마트폰', '중독')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1876848333333333</v>
+        <v>0.2293616666666667</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결능력')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1808835</v>
+        <v>0.2282668333333333</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('혁명', '시대')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1798965</v>
+        <v>0.2271628333333333</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1734966666666666</v>
+        <v>0.2271628333333333</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('운영', '체제')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1682976666666667</v>
+        <v>0.226032</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교사')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1665646666666666</v>
+        <v>0.2236891666666667</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('addie', '모형')</t>
+          <t>('연구', '제시', 'ㄴ')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1644185</v>
+        <v>0.2216293333333333</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('사회', '실재감')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1577581666666667</v>
+        <v>0.2172691666666667</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1548421666666667</v>
+        <v>0.2156623333333333</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1523468333333333</v>
+        <v>0.2148503333333333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('통제', '집단')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1520463333333333</v>
+        <v>0.2020446666666667</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('사후', '검사')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1384433333333333</v>
+        <v>0.1970796666666667</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('코딩', '강사')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1335778333333333</v>
+        <v>0.1931308333333333</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('프레임', '임워크')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1309143333333333</v>
+        <v>0.1918648333333333</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('지식', '창출')</t>
+          <t>('분석', '분석', '결과')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1262596666666667</v>
+        <v>0.1917505</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1257708333333333</v>
+        <v>0.191141</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('성취', '기준')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1234281666666667</v>
+        <v>0.1883213333333333</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('iptv', '유아')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1222708333333333</v>
+        <v>0.183879</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결력')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1209665</v>
+        <v>0.1793741666666667</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('논리', '사고력')</t>
+          <t>('는', '영향', '분석')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1172216666666667</v>
+        <v>0.177259</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('원격', '연수')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1115328333333333</v>
+        <v>0.1748538333333334</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('찾', '을', '수')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1077721666666667</v>
+        <v>0.1676303333333333</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('문헌', '고찰')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1010305</v>
+        <v>0.1654376666666666</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.09457583333333333</v>
+        <v>0.1654376666666666</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.09266816666666666</v>
+        <v>0.1598668333333333</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.09145250000000001</v>
+        <v>0.1425618333333333</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('표준', '모델')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.09120233333333333</v>
+        <v>0.1162423333333333</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.08688816666666667</v>
+        <v>0.1141845</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('다중', '지능')</t>
+          <t>('초점', '맞추', 'ㄴ')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.0853225</v>
+        <v>0.1115188333333333</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('인터넷', '중독')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.08269800000000001</v>
+        <v>0.1077721666666667</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('지속', '의향')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.08092166666666667</v>
+        <v>0.1058748333333333</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('자기', '효능감')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.07880216666666666</v>
+        <v>0.1042155</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('과제', '표절')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.0775575</v>
+        <v>0.09123433333333333</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('윤리', '의식')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.07255416666666667</v>
+        <v>0.08757799999999999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.07188099999999999</v>
+        <v>0.08754733333333332</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('과제', '가치')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.071382</v>
+        <v>0.08155533333333334</v>
       </c>
     </row>
     <row r="87">
@@ -1302,141 +1302,141 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('영재', '판별')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.06842816666666665</v>
+        <v>0.067604</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스토리텔링')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.06841133333333332</v>
+        <v>0.06759566666666667</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.06760783333333334</v>
+        <v>0.06524383333333332</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담실')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.06070766666666667</v>
+        <v>0.0640555</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.05351766666666666</v>
+        <v>0.05951283333333333</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('학급', '홈페이지')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.05316733333333334</v>
+        <v>0.05854566666666667</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.05119800000000001</v>
+        <v>0.05680633333333333</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('디자인', '사고')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.0472315</v>
+        <v>0.05610066666666667</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('성격', '유형')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.04380016666666665</v>
+        <v>0.05177416666666666</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('중독', '치료')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.04048033333333333</v>
+        <v>0.04444033333333333</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독')</t>
+          <t>('그리', 'ㄴ', 'it')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.030235</v>
+        <v>0.03483433333333333</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('정렬', '알고리즘')</t>
+          <t>('로봇', '활용', 'sw')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.022596</v>
+        <v>0.03239233333333333</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.02034216666666666</v>
+        <v>0.0246145</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('공공', '서비스')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.01891416666666667</v>
+        <v>0.02033133333333334</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic12_candidates.xlsx
+++ b/datamining/final_data/topic12_candidates.xlsx
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7983568333333334</v>
+        <v>0.7840171666666667</v>
       </c>
     </row>
     <row r="3">
@@ -462,41 +462,41 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('기술', '의', '발달')</t>
+          <t>('다음', '같')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6094723333333334</v>
+        <v>0.6427636666666666</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('지식', '정보', '사회')</t>
+          <t>('이', '따르', '논문')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5321941666666667</v>
+        <v>0.6425381666666666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('점', '의의', '있')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5166283333333334</v>
+        <v>0.5321941666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '인재', '양성')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5162146666666667</v>
+        <v>0.5166283333333334</v>
       </c>
     </row>
     <row r="8">
@@ -512,911 +512,911 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('것', '알', 'ㄹ')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4670603333333334</v>
+        <v>0.4071253333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('중', '의', '하나')</t>
+          <t>('학생', '명', '대상')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4461976666666667</v>
+        <v>0.3950301666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('의', '스', '마')</t>
+          <t>('인재', '양성', '위하')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4170938333333333</v>
+        <v>0.38984</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('이', '같', '은')</t>
+          <t>('있', '알', '수')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4161141666666666</v>
+        <v>0.379867</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰', '기')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4071253333333333</v>
+        <v>0.3782458333333333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('학생', '명', '대상')</t>
+          <t>('것', '알', '수')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3950301666666667</v>
+        <v>0.3768035</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('수준', '맞', '는')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3928031666666666</v>
+        <v>0.3721708333333333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('다는', '점', '의의')</t>
+          <t>('초점', '맞추')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3918493333333334</v>
+        <v>0.3656271666666667</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성', '위하')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.38984</v>
+        <v>0.3607756666666666</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('있', '을', '것')</t>
+          <t>('그', '효과', '검증')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3833463333333333</v>
+        <v>0.3607375</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('영향', '주', '것')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3782458333333333</v>
+        <v>0.3481883333333333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성', '위하')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3721708333333333</v>
+        <v>0.3407718333333334</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('는', '데', '있')</t>
+          <t>('간', '상호', '작용')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3617298333333334</v>
+        <v>0.322331</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '기초', '자료')</t>
+          <t>('대하', '관심', '높')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3608825</v>
+        <v>0.3195796666666667</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3607756666666666</v>
+        <v>0.3188481666666667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '형태', '의')</t>
+          <t>('시스템', '설계', '구현')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3573671666666667</v>
+        <v>0.3160171666666666</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원', '의')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.351117</v>
+        <v>0.3114158333333333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('학습자', '중심', '의')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3486703333333333</v>
+        <v>0.3102283333333333</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('유', '미')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3407718333333334</v>
+        <v>0.3018481666666666</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('의', '자기', '주도')</t>
+          <t>('전자', '책')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3378633333333333</v>
+        <v>0.2985871666666666</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('유', '미', 'ㄴ')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3318181666666667</v>
+        <v>0.2959156666666667</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '관심', '높')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3195796666666667</v>
+        <v>0.2927306666666666</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('차', '산업', '혁명')</t>
+          <t>('향상', '긍정', '영향')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3188481666666667</v>
+        <v>0.2903501666666667</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('동', '영', '상')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3114158333333333</v>
+        <v>0.2847761666666667</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('실험', '집단', '통제')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3102283333333333</v>
+        <v>0.2847761666666667</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도', '학습')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3019555</v>
+        <v>0.2817368333333333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사', '실시')</t>
+          <t>('도움', '주', '수')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2959156666666667</v>
+        <v>0.2704803333333333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('동영', '상')</t>
+          <t>('학년', '학생', '명')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2927306666666666</v>
+        <v>0.267777</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제', '집단')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2847761666666667</v>
+        <v>0.2612503333333334</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('얻', '을', '수')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2830998333333333</v>
+        <v>0.2547761666666667</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('애', '플리케이션')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2817368333333333</v>
+        <v>0.2522721666666666</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('ㄹ', '필요', '있')</t>
+          <t>('영향', '미치', '것')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2678183333333333</v>
+        <v>0.2506286666666667</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('도움', '주', 'ㄹ')</t>
+          <t>('마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2638396666666666</v>
+        <v>0.2422095</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술', '교육')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2618423333333333</v>
+        <v>0.2414255</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습', '능력')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2612503333333334</v>
+        <v>0.2361958333333333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('영향', '주', '는')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.256152</v>
+        <v>0.2356426666666667</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('초등', '예비', '교사')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2547761666666667</v>
+        <v>0.2304158333333333</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰', '사용')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2422095</v>
+        <v>0.2293616666666667</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('향상', '긍정', 'ㄴ')</t>
+          <t>('방법', '평가', '방법')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2415126666666667</v>
+        <v>0.2292293333333333</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('스', '스마트', '교육')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2414255</v>
+        <v>0.2271628333333333</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('메', '타')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2361958333333333</v>
+        <v>0.2271628333333333</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2304158333333333</v>
+        <v>0.226032</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동', '시간')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2293616666666667</v>
+        <v>0.2236891666666667</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('문제', '중심', '학습')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2282668333333333</v>
+        <v>0.2172691666666667</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본', 't')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2271628333333333</v>
+        <v>0.2156623333333333</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.2271628333333333</v>
+        <v>0.2148503333333333</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('마', '스마트폰')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.226032</v>
+        <v>0.2148503333333333</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('영', '재')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2236891666666667</v>
+        <v>0.2020446666666667</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('연구', '제시', 'ㄴ')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2216293333333333</v>
+        <v>0.1970796666666667</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('자', '기')</t>
+          <t>('통신', '기술', '활용')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.2172691666666667</v>
+        <v>0.19458</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.2156623333333333</v>
+        <v>0.1931308333333333</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('스', '마', '스마트폰')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.2148503333333333</v>
+        <v>0.1918648333333333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't', '검정')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.2020446666666667</v>
+        <v>0.191141</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('t', '검정')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1970796666666667</v>
+        <v>0.1883213333333333</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('기', '주도', '학습')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1931308333333333</v>
+        <v>0.183879</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('정보', '영', '재')</t>
+          <t>('마', '스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1918648333333333</v>
+        <v>0.1829796666666667</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('분석', '분석', '결과')</t>
+          <t>('교육', '프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1917505</v>
+        <v>0.1828125</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명', '시대')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.191141</v>
+        <v>0.1793741666666667</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1883213333333333</v>
+        <v>0.1748538333333334</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('과정', '표준', '모델')</t>
+          <t>('미치', '영향', '분석')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.183879</v>
+        <v>0.1735381666666666</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('자', '기', '주도')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1793741666666667</v>
+        <v>0.1654376666666666</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('는', '영향', '분석')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.177259</v>
+        <v>0.1654376666666666</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1748538333333334</v>
+        <v>0.1598668333333333</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('찾', '을', '수')</t>
+          <t>('학습', '방법', '평가')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1676303333333333</v>
+        <v>0.155823</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학', '회')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1654376666666666</v>
+        <v>0.1425618333333333</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1654376666666666</v>
+        <v>0.1162423333333333</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('학', '회')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1598668333333333</v>
+        <v>0.1141845</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후', '검사')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1425618333333333</v>
+        <v>0.1077721666666667</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린터')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1162423333333333</v>
+        <v>0.1058748333333333</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사', '사고력')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1141845</v>
+        <v>0.1042155</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('초점', '맞추', 'ㄴ')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1115188333333333</v>
+        <v>0.09123433333333333</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1077721666666667</v>
+        <v>0.08757799999999999</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('체계', '문헌', '고찰')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1058748333333333</v>
+        <v>0.08754733333333332</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스', '스토리텔링')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1042155</v>
+        <v>0.074465</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('교사', '보조', '로봇')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.09123433333333333</v>
+        <v>0.06970683333333333</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('정보', '활용', '능력')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.08757799999999999</v>
+        <v>0.06759566666666667</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('통신', '윤리', '의식')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.08754733333333332</v>
+        <v>0.06726383333333333</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서', '활용')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.08155533333333334</v>
+        <v>0.06646433333333333</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('디지털교과서', '과서', '사용')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.06970683333333333</v>
+        <v>0.06595933333333333</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '교육')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.067604</v>
+        <v>0.06524383333333332</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.06759566666666667</v>
+        <v>0.0640555</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담', '시스템')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.06524383333333332</v>
+        <v>0.05951283333333333</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('학습', '지속', '의향')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.0640555</v>
+        <v>0.05854566666666667</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.05951283333333333</v>
+        <v>0.05680633333333333</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '보조', '학습')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.05854566666666667</v>
+        <v>0.05610066666666667</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('앱', '개발', '교육')</t>
+          <t>('정보', '통신', '윤리')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.05680633333333333</v>
+        <v>0.05197533333333333</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린팅')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.05610066666666667</v>
+        <v>0.05177416666666666</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '가', '정학습')</t>
+          <t>('정보', '과학', '영재')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.05177416666666666</v>
+        <v>0.04743866666666666</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절', '학습')</t>
+          <t>('게임', '중독', '치료')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.04444033333333333</v>
+        <v>0.04534983333333333</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('그리', 'ㄴ', 'it')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.03483433333333333</v>
+        <v>0.04444033333333333</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '활용', 'sw')</t>
+          <t>('그리', 'it')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.03239233333333333</v>
+        <v>0.03483433333333333</v>
       </c>
     </row>
     <row r="100">

--- a/datamining/final_data/topic12_candidates.xlsx
+++ b/datamining/final_data/topic12_candidates.xlsx
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7840171666666667</v>
+        <v>0.7649739583333334</v>
       </c>
     </row>
     <row r="3">
@@ -456,27 +456,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7485206666666667</v>
+        <v>0.7237458333333334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('다음', '같')</t>
+          <t>('이', '따르', '논문')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6427636666666666</v>
+        <v>0.6225927083333332</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('이', '따르', '논문')</t>
+          <t>('다음', '같')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6425381666666666</v>
+        <v>0.6179845833333333</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5321941666666667</v>
+        <v>0.5113002083333333</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5166283333333334</v>
+        <v>0.4873879166666667</v>
       </c>
     </row>
     <row r="8">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4930921666666667</v>
+        <v>0.4683777083333333</v>
       </c>
     </row>
     <row r="9">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4071253333333333</v>
+        <v>0.4000291666666667</v>
       </c>
     </row>
     <row r="10">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3950301666666667</v>
+        <v>0.3701752083333333</v>
       </c>
     </row>
     <row r="11">
@@ -536,27 +536,27 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.38984</v>
+        <v>0.361895</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('있', '알', '수')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.379867</v>
+        <v>0.3542447916666667</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('있', '알', '수')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3782458333333333</v>
+        <v>0.35257375</v>
       </c>
     </row>
     <row r="14">
@@ -566,37 +566,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3768035</v>
+        <v>0.352424375</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성', '위하')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3721708333333333</v>
+        <v>0.3513145833333333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('초점', '맞추')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3656271666666667</v>
+        <v>0.3481260416666667</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰')</t>
+          <t>('초점', '맞추')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3607756666666666</v>
+        <v>0.3459789583333333</v>
       </c>
     </row>
     <row r="18">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3607375</v>
+        <v>0.335879375</v>
       </c>
     </row>
     <row r="19">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3481883333333333</v>
+        <v>0.3270354166666667</v>
       </c>
     </row>
     <row r="20">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3407718333333334</v>
+        <v>0.3185022916666667</v>
       </c>
     </row>
     <row r="21">
@@ -636,57 +636,57 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.322331</v>
+        <v>0.29965625</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('대하', '관심', '높')</t>
+          <t>('시스템', '설계', '구현')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3195796666666667</v>
+        <v>0.2977389583333333</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('차', '산업', '혁명')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3188481666666667</v>
+        <v>0.2971547916666667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('시스템', '설계', '구현')</t>
+          <t>('대하', '관심', '높')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3160171666666666</v>
+        <v>0.2931720833333333</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('동', '영', '상')</t>
+          <t>('전자', '책')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3114158333333333</v>
+        <v>0.2886039583333333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3102283333333333</v>
+        <v>0.2883227083333333</v>
       </c>
     </row>
     <row r="27">
@@ -696,57 +696,57 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3018481666666666</v>
+        <v>0.2870077083333333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('전자', '책')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2985871666666666</v>
+        <v>0.2805279166666667</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사', '실시')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2959156666666667</v>
+        <v>0.2769133333333333</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('동영', '상')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2927306666666666</v>
+        <v>0.2741020833333334</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('향상', '긍정', '영향')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2903501666666667</v>
+        <v>0.2689660416666667</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제', '집단')</t>
+          <t>('향상', '긍정', '영향')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2847761666666667</v>
+        <v>0.2661727083333333</v>
       </c>
     </row>
     <row r="33">
@@ -756,47 +756,47 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2847761666666667</v>
+        <v>0.2594627083333333</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('애', '플리케이션')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2817368333333333</v>
+        <v>0.2594627083333333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('도움', '주', '수')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2704803333333333</v>
+        <v>0.2516979166666667</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('학년', '학생', '명')</t>
+          <t>('도움', '주', '수')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.267777</v>
+        <v>0.2482779166666667</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습', '능력')</t>
+          <t>('학년', '학생', '명')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2612503333333334</v>
+        <v>0.24696375</v>
       </c>
     </row>
     <row r="38">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2547761666666667</v>
+        <v>0.2430227083333333</v>
       </c>
     </row>
     <row r="39">
@@ -816,117 +816,117 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2522721666666666</v>
+        <v>0.2402327083333333</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('영향', '미치', '것')</t>
+          <t>('마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2506286666666667</v>
+        <v>0.235311875</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰', '사용')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2422095</v>
+        <v>0.229071875</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('스', '스마트', '교육')</t>
+          <t>('영향', '미치', '것')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2414255</v>
+        <v>0.2279883333333333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('메', '타')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2361958333333333</v>
+        <v>0.2276108333333333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('문제', '중심', '학습')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2356426666666667</v>
+        <v>0.2188822916666667</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2304158333333333</v>
+        <v>0.2146275</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동', '시간')</t>
+          <t>('방법', '평가', '방법')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2293616666666667</v>
+        <v>0.2146016666666667</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('방법', '평가', '방법')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2292293333333333</v>
+        <v>0.2142045833333334</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본', 't')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2271628333333333</v>
+        <v>0.2137322916666667</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2271628333333333</v>
+        <v>0.2088679166666667</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('마', '스마트폰')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.226032</v>
+        <v>0.2088679166666667</v>
       </c>
     </row>
     <row r="51">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2236891666666667</v>
+        <v>0.2074489583333334</v>
       </c>
     </row>
     <row r="52">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2172691666666667</v>
+        <v>0.2043439583333333</v>
       </c>
     </row>
     <row r="53">
@@ -956,197 +956,197 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2156623333333333</v>
+        <v>0.2013304166666667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('스', '마', '스마트폰')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.2148503333333333</v>
+        <v>0.1965360416666667</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2148503333333333</v>
+        <v>0.1965360416666667</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't', '검정')</t>
+          <t>('통신', '기술', '활용')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2020446666666667</v>
+        <v>0.1891425</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('t', '검정')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1970796666666667</v>
+        <v>0.1815835416666667</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술', '활용')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.19458</v>
+        <v>0.1768185416666667</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('기', '주도', '학습')</t>
+          <t>('마', '스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1931308333333333</v>
+        <v>0.1756270833333333</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('정보', '영', '재')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1918648333333333</v>
+        <v>0.1725208333333333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명', '시대')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.191141</v>
+        <v>0.1677852083333333</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1883213333333333</v>
+        <v>0.1674795833333333</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('과정', '표준', '모델')</t>
+          <t>('교육', '프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.183879</v>
+        <v>0.166223125</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰', '중독')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1829796666666667</v>
+        <v>0.16565125</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('교육', '프로그래밍', '언어')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1828125</v>
+        <v>0.15932625</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('자', '기', '주도')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1793741666666667</v>
+        <v>0.1586241666666666</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('미치', '영향', '분석')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1748538333333334</v>
+        <v>0.1525952083333333</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('미치', '영향', '분석')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1735381666666666</v>
+        <v>0.1487347916666667</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1654376666666666</v>
+        <v>0.1483845833333333</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학', '회')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1654376666666666</v>
+        <v>0.1483845833333333</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('학', '회')</t>
+          <t>('학습', '방법', '평가')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1598668333333333</v>
+        <v>0.14384875</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('학습', '방법', '평가')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.155823</v>
+        <v>0.1429560416666666</v>
       </c>
     </row>
     <row r="73">
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1425618333333333</v>
+        <v>0.1142497916666666</v>
       </c>
     </row>
     <row r="74">
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1162423333333333</v>
+        <v>0.1041754166666667</v>
       </c>
     </row>
     <row r="75">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1141845</v>
+        <v>0.103560625</v>
       </c>
     </row>
     <row r="76">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1077721666666667</v>
+        <v>0.1002202083333333</v>
       </c>
     </row>
     <row r="77">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1058748333333333</v>
+        <v>0.09638354166666666</v>
       </c>
     </row>
     <row r="78">
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1042155</v>
+        <v>0.094554375</v>
       </c>
     </row>
     <row r="79">
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.09123433333333333</v>
+        <v>0.08589041666666666</v>
       </c>
     </row>
     <row r="80">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.08757799999999999</v>
+        <v>0.08229499999999999</v>
       </c>
     </row>
     <row r="81">
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.08754733333333332</v>
+        <v>0.08175166666666665</v>
       </c>
     </row>
     <row r="82">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.074465</v>
+        <v>0.06538375000000002</v>
       </c>
     </row>
     <row r="83">
@@ -1256,27 +1256,27 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.06970683333333333</v>
+        <v>0.06482354166666666</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.06759566666666667</v>
+        <v>0.060121875</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '의식')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.06726383333333333</v>
+        <v>0.05970708333333333</v>
       </c>
     </row>
     <row r="86">
@@ -1286,17 +1286,17 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.06646433333333333</v>
+        <v>0.05963791666666667</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서', '사용')</t>
+          <t>('통신', '윤리', '의식')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.06595933333333333</v>
+        <v>0.05865229166666666</v>
       </c>
     </row>
     <row r="88">
@@ -1306,17 +1306,17 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.06524383333333332</v>
+        <v>0.05864979166666666</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('학습', '지속', '의향')</t>
+          <t>('디지털교과서', '과서', '사용')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.0640555</v>
+        <v>0.05648666666666666</v>
       </c>
     </row>
     <row r="90">
@@ -1326,37 +1326,37 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.05951283333333333</v>
+        <v>0.05238604166666667</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '보조', '학습')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.05854566666666667</v>
+        <v>0.05181541666666667</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('앱', '개발', '교육')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.05680633333333333</v>
+        <v>0.05038833333333334</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린팅')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.05610066666666667</v>
+        <v>0.04970208333333334</v>
       </c>
     </row>
     <row r="94">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.05197533333333333</v>
+        <v>0.04707416666666667</v>
       </c>
     </row>
     <row r="95">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.05177416666666666</v>
+        <v>0.04685270833333334</v>
       </c>
     </row>
     <row r="96">
@@ -1386,27 +1386,27 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.04743866666666666</v>
+        <v>0.04366333333333333</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독', '치료')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.04534983333333333</v>
+        <v>0.04013041666666667</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절', '학습')</t>
+          <t>('게임', '중독', '치료')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.04444033333333333</v>
+        <v>0.03643479166666667</v>
       </c>
     </row>
     <row r="99">
@@ -1416,27 +1416,27 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.03483433333333333</v>
+        <v>0.02836041666666667</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각', '교육')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.0246145</v>
+        <v>0.01638166666666667</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.02033133333333334</v>
+        <v>0.016060625</v>
       </c>
     </row>
   </sheetData>
